--- a/LauncherApp.xlsx
+++ b/LauncherApp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="DNS" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="94">
-  <si>
-    <t>Level31</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="96">
   <si>
     <t>209.244.0.3</t>
   </si>
@@ -30,27 +27,18 @@
     <t>209.244.0.4</t>
   </si>
   <si>
-    <t>Verisign2</t>
-  </si>
-  <si>
     <t>64.6.64.6</t>
   </si>
   <si>
     <t>64.6.65.6</t>
   </si>
   <si>
-    <t>Google3</t>
-  </si>
-  <si>
     <t>8.8.8.8</t>
   </si>
   <si>
     <t>8.8.4.4</t>
   </si>
   <si>
-    <t>DNS.WATCH4</t>
-  </si>
-  <si>
     <t>84.200.69.80</t>
   </si>
   <si>
@@ -66,45 +54,30 @@
     <t>8.20.247.20</t>
   </si>
   <si>
-    <t>OpenDNS Home5</t>
-  </si>
-  <si>
     <t>208.67.222.222</t>
   </si>
   <si>
     <t>208.67.220.220</t>
   </si>
   <si>
-    <t>Norton ConnectSafe6</t>
-  </si>
-  <si>
     <t>199.85.126.10</t>
   </si>
   <si>
     <t>199.85.127.10</t>
   </si>
   <si>
-    <t>GreenTeamDNS7</t>
-  </si>
-  <si>
     <t>81.218.119.11</t>
   </si>
   <si>
     <t>209.88.198.133</t>
   </si>
   <si>
-    <t>SafeDNS8</t>
-  </si>
-  <si>
     <t>195.46.39.39</t>
   </si>
   <si>
     <t>195.46.39.40</t>
   </si>
   <si>
-    <t>OpenNIC9</t>
-  </si>
-  <si>
     <t>96.90.175.167</t>
   </si>
   <si>
@@ -129,36 +102,24 @@
     <t>216.146.36.36</t>
   </si>
   <si>
-    <t>FreeDNS10</t>
-  </si>
-  <si>
     <t>37.235.1.174</t>
   </si>
   <si>
     <t>37.235.1.177</t>
   </si>
   <si>
-    <t>Alternate DNS11</t>
-  </si>
-  <si>
     <t>198.101.242.72</t>
   </si>
   <si>
     <t>23.253.163.53</t>
   </si>
   <si>
-    <t>Yandex.DNS12</t>
-  </si>
-  <si>
     <t>77.88.8.8</t>
   </si>
   <si>
     <t>77.88.8.1</t>
   </si>
   <si>
-    <t>UncensoredDNS13</t>
-  </si>
-  <si>
     <t>91.239.100.100</t>
   </si>
   <si>
@@ -301,13 +262,58 @@
   </si>
   <si>
     <t>$11.00/per month</t>
+  </si>
+  <si>
+    <t>Free &amp; Public DNS Servers (Valid April 2017)</t>
+  </si>
+  <si>
+    <t>Level3</t>
+  </si>
+  <si>
+    <t>Verisign</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>DNS.WATCH</t>
+  </si>
+  <si>
+    <t>OpenDNS Home</t>
+  </si>
+  <si>
+    <t>Norton ConnectSafe</t>
+  </si>
+  <si>
+    <t>GreenTeamDNS</t>
+  </si>
+  <si>
+    <t>SafeDNS</t>
+  </si>
+  <si>
+    <t>OpenNIC</t>
+  </si>
+  <si>
+    <t>FreeDNS</t>
+  </si>
+  <si>
+    <t>Alternate DNS</t>
+  </si>
+  <si>
+    <t>Yandex.DNS</t>
+  </si>
+  <si>
+    <t>UncensoredDNS</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,8 +363,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="25"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,6 +393,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE5E5E5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,7 +440,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -444,9 +463,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -455,6 +471,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1099,224 +1130,286 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="D3:F19"/>
+  <dimension ref="C1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
     <col min="5" max="5" width="35.85546875" customWidth="1"/>
     <col min="6" max="6" width="35.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:6" ht="32.25" x14ac:dyDescent="0.5">
+      <c r="D1" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="3" spans="3:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="13" t="s">
+        <v>95</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="4:6" ht="30" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="15">
+        <v>1</v>
+      </c>
       <c r="D4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="15">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="15">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="3" t="s">
+    </row>
+    <row r="7" spans="3:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="15">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="4:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="D5" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="3" t="s">
+    </row>
+    <row r="8" spans="3:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="15">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D6" s="2" t="s">
+      <c r="D8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="3" t="s">
+    </row>
+    <row r="9" spans="3:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="15">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="4:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="D7" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="3" t="s">
+    </row>
+    <row r="10" spans="3:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="15">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="15">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="15">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="15">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="15">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="4:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="D8" s="2" t="s">
+      <c r="D14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="15">
         <v>12</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="D15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="15">
         <v>13</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="D16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="15">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="4:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="D9" s="2" t="s">
+      <c r="D17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="15">
         <v>15</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="D18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="15">
         <v>16</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="4:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="D10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="4:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="D11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="4:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="D12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="4:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="D13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="4:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="D14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="4:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="D15" s="2" t="s">
+      <c r="D19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="4:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="D16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="D17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="D18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="D19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>47</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" display="http://www.level3.com/"/>
-    <hyperlink ref="D5" r:id="rId2" display="https://www.verisign.com/en_US/security-services/public-dns/index.xhtml"/>
-    <hyperlink ref="D6" r:id="rId3" display="https://developers.google.com/speed/public-dns/"/>
-    <hyperlink ref="D7" r:id="rId4" display="https://dns.watch/index"/>
-    <hyperlink ref="D8" r:id="rId5" display="https://www.comodo.com/secure-dns/"/>
-    <hyperlink ref="D9" r:id="rId6" display="https://www.opendns.com/"/>
-    <hyperlink ref="D10" r:id="rId7" display="https://dns.norton.com/faq.html"/>
-    <hyperlink ref="D11" r:id="rId8" display="http://www.greentm.co.uk/"/>
-    <hyperlink ref="D12" r:id="rId9" display="https://www.safedns.com/features"/>
-    <hyperlink ref="D13" r:id="rId10" display="https://www.opennicproject.org/"/>
-    <hyperlink ref="D14" r:id="rId11" display="http://www.markosweb.com/free-dns/"/>
-    <hyperlink ref="D15" r:id="rId12" display="https://help.dyn.com/internet-guide-setup/"/>
-    <hyperlink ref="D16" r:id="rId13" display="https://freedns.zone/"/>
-    <hyperlink ref="D17" r:id="rId14" display="https://alternate-dns.com/"/>
-    <hyperlink ref="D18" r:id="rId15" display="https://dns.yandex.com/advanced/"/>
-    <hyperlink ref="D19" r:id="rId16" display="https://blog.uncensoreddns.org/"/>
+    <hyperlink ref="D6" r:id="rId1" display="http://www.level3.com/"/>
+    <hyperlink ref="D7" r:id="rId2" display="https://www.verisign.com/en_US/security-services/public-dns/index.xhtml"/>
+    <hyperlink ref="D8" r:id="rId3" display="https://dns.watch/index"/>
+    <hyperlink ref="D9" r:id="rId4" display="https://www.comodo.com/secure-dns/"/>
+    <hyperlink ref="D10" r:id="rId5" display="https://dns.norton.com/faq.html"/>
+    <hyperlink ref="D11" r:id="rId6" display="http://www.greentm.co.uk/"/>
+    <hyperlink ref="D12" r:id="rId7" display="https://www.safedns.com/features"/>
+    <hyperlink ref="D13" r:id="rId8" display="https://www.opennicproject.org/"/>
+    <hyperlink ref="D14" r:id="rId9" display="http://www.markosweb.com/free-dns/"/>
+    <hyperlink ref="D15" r:id="rId10" display="https://help.dyn.com/internet-guide-setup/"/>
+    <hyperlink ref="D16" r:id="rId11" display="https://freedns.zone/"/>
+    <hyperlink ref="D17" r:id="rId12" display="https://alternate-dns.com/"/>
+    <hyperlink ref="D18" r:id="rId13" display="https://dns.yandex.com/advanced/"/>
+    <hyperlink ref="D19" r:id="rId14" display="https://blog.uncensoreddns.org/"/>
+    <hyperlink ref="D4" r:id="rId15" display="https://developers.google.com/speed/public-dns/"/>
+    <hyperlink ref="D5" r:id="rId16" display="https://www.opendns.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
@@ -1330,7 +1423,7 @@
   </sheetPr>
   <dimension ref="B1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -1347,288 +1440,288 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="D1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="2:8" s="4" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>58</v>
+        <v>39</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="2:8" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>93</v>
+        <v>75</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="2:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>64</v>
+        <v>46</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>70</v>
+        <v>52</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>51</v>
+        <v>58</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>51</v>
+        <v>59</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>51</v>
+        <v>60</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>51</v>
+        <v>61</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>51</v>
+        <v>62</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>85</v>
+        <v>63</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>85</v>
+        <v>64</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>84</v>
+        <v>65</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
